--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>Delete N Nodes After M Nodes of a Linked List</t>
+  </si>
+  <si>
+    <t>12/27/2022</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>convert linked list to integer or list / convert in the while loop</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
   </si>
 </sst>
 </file>
@@ -567,9 +585,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,10 +731,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -771,7 +786,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -781,7 +796,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -914,7 +929,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -925,31 +939,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -971,7 +985,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1029,7 +1043,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -1042,13 +1056,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1066,284 +1079,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="28.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="11.7272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6363636363636" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.2727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8181818181818" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="18.0090909090909" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>141</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>160</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>203</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>206</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>234</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>876</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1290</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1474</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1353,14 +1457,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1370,7 +1475,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>date</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>12/28/2022</t>
+  </si>
+  <si>
+    <t>Partition List</t>
+  </si>
+  <si>
+    <t>two pointers, be careful with memory address, best way is to use a dummy as the beginning of the linked list</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1094,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1434,6 +1446,49 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>date</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>the point of deep copy is that new linked list and old linked list have the same node but they don't share the same memory address</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>two pointers</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1490,6 +1502,52 @@
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>138</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>two pointers</t>
+  </si>
+  <si>
+    <t>12/29/2022</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>linked list to list / n pointers, whoever choose to solve it like this is insane</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1118,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1548,6 +1560,46 @@
       </c>
       <c r="G20" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1">
+        <v>143</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1">
+        <v>146</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>date</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>12/30/2022</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>1/2/2023</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>greedy</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1136,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1600,6 +1618,49 @@
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>greedy</t>
+  </si>
+  <si>
+    <t>1/5/2023</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>using "in / not in" is time-consuming</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1148,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1661,6 +1673,49 @@
       </c>
       <c r="G24" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1">
+        <v>268</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
   <si>
     <t>date</t>
   </si>
@@ -184,6 +184,45 @@
   </si>
   <si>
     <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>1/6/2023</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>1/7/2023</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>1/8/2023</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>three pointers</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Single Number</t>
   </si>
 </sst>
 </file>
@@ -1148,10 +1187,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1718,6 +1757,172 @@
         <v>48</v>
       </c>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1">
+        <v>121</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1">
+        <v>136</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1732,7 +1937,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
   <si>
     <t>date</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Single Number</t>
+  </si>
+  <si>
+    <t>2/7/2023</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>repeat string by multiplication "*"</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1199,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1921,6 +1933,29 @@
       </c>
       <c r="F34" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
   <si>
     <t>date</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>repeat string by multiplication "*"</t>
+  </si>
+  <si>
+    <t>2/8/2023</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>the latter part of the list is already sorted for certain reasons</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1211,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1956,6 +1968,52 @@
       </c>
       <c r="G35" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/diary.xlsx
+++ b/diary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>date</t>
   </si>
@@ -165,7 +165,7 @@
     <t>array</t>
   </si>
   <si>
-    <t>1/2/2023</t>
+    <t>01/02/2023</t>
   </si>
   <si>
     <t>Container With Most Water</t>
@@ -174,7 +174,7 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>1/5/2023</t>
+    <t>01/05/2023</t>
   </si>
   <si>
     <t>Missing Number</t>
@@ -186,13 +186,13 @@
     <t>Remove Duplicates from Sorted Array</t>
   </si>
   <si>
-    <t>1/6/2023</t>
+    <t>01/06/2023</t>
   </si>
   <si>
     <t>Remove Element</t>
   </si>
   <si>
-    <t>1/7/2023</t>
+    <t>01/07/2023</t>
   </si>
   <si>
     <t>Search Insert Position</t>
@@ -204,7 +204,7 @@
     <t>Plus One</t>
   </si>
   <si>
-    <t>1/8/2023</t>
+    <t>01/08/2023</t>
   </si>
   <si>
     <t>Merge Sorted Array</t>
@@ -225,7 +225,7 @@
     <t>Single Number</t>
   </si>
   <si>
-    <t>2/7/2023</t>
+    <t>02/07/2023</t>
   </si>
   <si>
     <t>Integer to Roman</t>
@@ -237,7 +237,7 @@
     <t>repeat string by multiplication "*"</t>
   </si>
   <si>
-    <t>2/8/2023</t>
+    <t>02/08/2023</t>
   </si>
   <si>
     <t>Next Permutation</t>
@@ -247,6 +247,51 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>sorted() can sort a string to a list, " ",join(list) convert back to a string / A dictionary key must be of a type that is immutable</t>
+  </si>
+  <si>
+    <t>02/15/2023</t>
+  </si>
+  <si>
+    <t>Friend Requests I: Overall Acceptance Rate</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>if select from two tables at the same time, name the tables will be faster to locate the columns</t>
+  </si>
+  <si>
+    <t>Evaluate Boolean Expression</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>Game Play Analysis I</t>
+  </si>
+  <si>
+    <t>02/16/2023</t>
+  </si>
+  <si>
+    <t>Game Play Analysis II</t>
+  </si>
+  <si>
+    <t>group by + min/max does not work for other columns, try first_value() over (partition by, order by) instead of min()</t>
+  </si>
+  <si>
+    <t>Game Play Analysis III</t>
+  </si>
+  <si>
+    <t>partition by &amp; order by again with sum()</t>
+  </si>
+  <si>
+    <t>Employee Bonus</t>
   </si>
 </sst>
 </file>
@@ -259,9 +304,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -718,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,34 +782,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,100 +818,108 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1211,21 +1268,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.7272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.2727272727273" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.2727272727273" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.0909090909091" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8181818181818" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="18.0090909090909" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.0909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.8181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.0909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6363636363636" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5454545454545" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="18.0090909090909" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2014,6 +2071,143 @@
       </c>
       <c r="G37" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1">
+        <v>597</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1">
+        <v>511</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1">
+        <v>512</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="1">
+        <v>534</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1">
+        <v>577</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
